--- a/docs/ElevatorSimulator_Documentation_Flow.xlsx
+++ b/docs/ElevatorSimulator_Documentation_Flow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\_git\ElevatorTrafficSim\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7BF825C-946F-405F-9AF6-21D285FD0C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF6AE52-BD51-49F1-9D76-30C921358F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="14664" activeTab="1" xr2:uid="{1729F798-C1FD-480C-A8AA-CC79E52793C5}"/>
+    <workbookView xWindow="-38510" yWindow="-12190" windowWidth="38620" windowHeight="21820" activeTab="4" xr2:uid="{1729F798-C1FD-480C-A8AA-CC79E52793C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents List" sheetId="8" r:id="rId1"/>
@@ -322,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="543">
   <si>
     <t>For each trial, the number of elevators is fixed.</t>
   </si>
@@ -2624,6 +2624,9 @@
   </si>
   <si>
     <t>1. Functional Requirements</t>
+  </si>
+  <si>
+    <t>Need a user-friendly interface for running the simulation and viewing real‑time results; require the simulation to account for capacity, downtime, and maintenance scenarios.</t>
   </si>
 </sst>
 </file>
@@ -2799,20 +2802,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3779,7 +3782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906042FD-E1B2-4BD8-8A70-8F04A9F11C16}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
@@ -3898,160 +3901,160 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.8" customHeight="1">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11" ht="87.6" customHeight="1">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="35.4" customHeight="1">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="35.4" customHeight="1">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" ht="58.2" customHeight="1">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="37.799999999999997" customHeight="1">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="K18" s="21"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="108" customHeight="1">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" ht="61.2" customHeight="1">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="21" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="22" spans="1:11" ht="18">
       <c r="A22" s="9" t="s">
@@ -4077,7 +4080,7 @@
     </row>
     <row r="25" spans="1:11" ht="34.200000000000003" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="24" t="s">
         <v>384</v>
       </c>
       <c r="C25" s="19"/>
@@ -4091,7 +4094,7 @@
     </row>
     <row r="26" spans="1:11" ht="39" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="24" t="s">
         <v>385</v>
       </c>
       <c r="C26" s="19"/>
@@ -4105,7 +4108,7 @@
     </row>
     <row r="27" spans="1:11" ht="75.599999999999994" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="24" t="s">
         <v>386</v>
       </c>
       <c r="C27" s="19"/>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="28" spans="1:11" ht="36" customHeight="1">
       <c r="A28" s="4"/>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="24" t="s">
         <v>388</v>
       </c>
       <c r="C28" s="19"/>
@@ -4133,7 +4136,7 @@
     </row>
     <row r="29" spans="1:11" ht="40.200000000000003" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="24" t="s">
         <v>387</v>
       </c>
       <c r="C29" s="19"/>
@@ -4400,24 +4403,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
     <mergeCell ref="B28:J28"/>
     <mergeCell ref="B29:J29"/>
     <mergeCell ref="E15:H15"/>
@@ -4434,6 +4419,24 @@
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4444,8 +4447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1282CF21-4C9F-4B5C-96E5-79710E112BC7}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4521,7 +4524,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="28.8">
       <c r="A7" s="12" t="str">
         <f>"5."</f>
         <v>5.</v>
@@ -4529,7 +4532,9 @@
       <c r="B7" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="12" t="str">
@@ -4557,7 +4562,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C16"/>
+      <selection activeCell="C11" sqref="B3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4660,8 +4665,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
